--- a/importDataFormExcelTool/模板文档/logistics.xlsx
+++ b/importDataFormExcelTool/模板文档/logistics.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\kettle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\importDataFormExcelTool\模板文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>接收海关代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -35,6 +35,102 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>运输方式代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输工具名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保价费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>币制代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包裹单信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流企业代码不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海关代码不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输方式代码不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>币制代码不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流运单编号已存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47931808453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47931808454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被子1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>物流企业代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -43,14 +139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>运输方式代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输工具名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>航班航次号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -63,64 +151,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>保价费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>币制代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>净重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>件数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包裹单信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>发货人代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流企业代码不存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海关代码不存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号不存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输方式代码不存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>币制代码不存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流运单编号已存在</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>320106198108301000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106198108301000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -188,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +237,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,22 +530,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -502,51 +558,163 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3206610003</v>
+      </c>
+      <c r="B2">
+        <v>2302</v>
+      </c>
+      <c r="C2">
+        <v>2302</v>
+      </c>
+      <c r="D2">
+        <v>2487228</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="G2">
+        <v>370</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>142</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>31100736402</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3206610003</v>
+      </c>
+      <c r="B3">
+        <v>2302</v>
+      </c>
+      <c r="C3">
+        <v>2302</v>
+      </c>
+      <c r="D3">
+        <v>2487229</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>370</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>142</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>31100736403</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -558,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -566,32 +734,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
